--- a/aichan/547567102852008930_2021-07-15_14-00-01.xlsx
+++ b/aichan/547567102852008930_2021-07-15_14-00-01.xlsx
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18422,7 +18422,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19878,7 +19878,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24768,7 +24768,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -25526,7 +25526,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28680,7 +28680,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -29279,7 +29279,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -30070,7 +30070,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -32930,7 +32930,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -36295,7 +36295,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36454,7 +36454,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -37344,7 +37344,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37565,7 +37565,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -38972,7 +38972,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -39201,7 +39201,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39272,7 +39272,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39568,7 +39568,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39785,7 +39785,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -40077,7 +40077,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46802,7 +46802,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -47011,7 +47011,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -47086,7 +47086,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -48788,7 +48788,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -49325,7 +49325,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -51717,7 +51717,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -52283,7 +52283,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -53408,7 +53408,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -54598,7 +54598,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -55711,7 +55711,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -56216,7 +56216,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -56741,7 +56741,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -57845,7 +57845,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -58350,7 +58350,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -59536,7 +59536,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K806" t="inlineStr">
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="I818" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J818" t="inlineStr">
         <is>
